--- a/medicine/Maladies infectieuses/Bictégravir/Bictégravir.xlsx
+++ b/medicine/Maladies infectieuses/Bictégravir/Bictégravir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bict%C3%A9gravir</t>
+          <t>Bictégravir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bictégravir est une molécule en cours de test comme médicament, de la classe des inhibiteurs de l'intégrase, pour le traitement des infections au VIH.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bict%C3%A9gravir</t>
+          <t>Bictégravir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie plasmatique est de 18 h. Il est métabolisé par le cytochrome P3A4[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie plasmatique est de 18 h. Il est métabolisé par le cytochrome P3A4.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bict%C3%A9gravir</t>
+          <t>Bictégravir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné en première intention chez les patients ayant une infection au HIV, l'association avec de l'emtricitabine et du ténofovir, il s'avère d'une efficacité comparable à l'association dolutégravir, abacavir et lamivudine[2] ou à celle associant dolutégravir , emtricitabine et ténofovir[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné en première intention chez les patients ayant une infection au HIV, l'association avec de l'emtricitabine et du ténofovir, il s'avère d'une efficacité comparable à l'association dolutégravir, abacavir et lamivudine ou à celle associant dolutégravir , emtricitabine et ténofovir.
 </t>
         </is>
       </c>
